--- a/images/CIツール.xlsx
+++ b/images/CIツール.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alpha\Desktop\jenkins\reveal.js\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc1\Desktop\jenkins\reveal.js\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,59 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
-  <si>
-    <t>無料</t>
-    <rPh sb="0" eb="2">
-      <t>ムリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無料/有料</t>
-    <rPh sb="0" eb="2">
-      <t>ムリョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ユウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>定義ファイル</t>
-    <rPh sb="0" eb="2">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>YAML</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サービス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IaaS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SaaS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SaaS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Groovy</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>WebUI設定</t>
     <rPh sb="5" eb="7">
@@ -89,6 +36,34 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構築</t>
+    <rPh sb="0" eb="2">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitHub連携</t>
+    <rPh sb="6" eb="8">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×
+(SaaS)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○
+(オンプレミス)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -197,21 +172,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,6 +190,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1396,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B9:P17"/>
+  <dimension ref="B9:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1426,168 +1404,143 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3" t="s">
-        <v>0</v>
+      <c r="D13" s="6"/>
+      <c r="E13" s="9" t="s">
+        <v>6</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>1</v>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="9" t="s">
+        <v>5</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
-        <v>1</v>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="9" t="s">
+        <v>5</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
+      <c r="C14" s="6" t="s">
+        <v>3</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
-        <v>6</v>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7" t="s">
+        <v>1</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="17">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
     <mergeCell ref="E10:G12"/>
     <mergeCell ref="H10:J12"/>
     <mergeCell ref="K10:M12"/>
     <mergeCell ref="C10:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1607,74 +1560,74 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="10" spans="5:12" x14ac:dyDescent="0.4">
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="5:12" x14ac:dyDescent="0.4">
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="5:12" x14ac:dyDescent="0.4">
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="5:12" x14ac:dyDescent="0.4">
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="5:12" x14ac:dyDescent="0.4">
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="5:12" x14ac:dyDescent="0.4">
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="5:12" x14ac:dyDescent="0.4">
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1701,7 +1654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
